--- a/excel_data_thuc_nghiem.xlsx
+++ b/excel_data_thuc_nghiem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\datn-python\app_chinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAFF0B-AE2B-43EA-B7E1-9226E8DD4146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5ACE5E-C3E1-4793-A67B-0A8F81BD86A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8715,15 +8715,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1308846</xdr:colOff>
-      <xdr:row>628</xdr:row>
-      <xdr:rowOff>174811</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2659664</xdr:colOff>
+      <xdr:row>636</xdr:row>
+      <xdr:rowOff>157493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2097740</xdr:colOff>
-      <xdr:row>641</xdr:row>
+      <xdr:colOff>521786</xdr:colOff>
+      <xdr:row>652</xdr:row>
       <xdr:rowOff>143434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9039,24 +9039,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H628" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J634" sqref="J634"/>
+    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H623" sqref="H623"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.19921875" customWidth="1"/>
-    <col min="9" max="9" width="34.19921875" customWidth="1"/>
-    <col min="10" max="10" width="39.3984375" customWidth="1"/>
+    <col min="2" max="2" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.25" customWidth="1"/>
+    <col min="9" max="9" width="34.25" customWidth="1"/>
+    <col min="10" max="10" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>166</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>176</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>193</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>197</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>201</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>227</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>231</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>239</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>243</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>247</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>251</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>255</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>259</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>266</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>269</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>276</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>280</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>283</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>287</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>296</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>299</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>306</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>310</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>317</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>321</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>325</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>329</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>332</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>336</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>340</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>344</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>347</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>351</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>355</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>360</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>364</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>368</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>372</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>376</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>379</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>383</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>386</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>389</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>393</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>401</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>412</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>416</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>421</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>429</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>434</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>438</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>441</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>446</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>450</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>454</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>458</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>461</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>464</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>468</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>473</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>476</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>480</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>485</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>488</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>493</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>496</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>499</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>502</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>506</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>511</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>515</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>520</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>525</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>530</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>533</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>537</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>541</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>546</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>549</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>554</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>557</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>561</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>564</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>567</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>570</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>574</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>577</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>580</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>583</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>586</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>590</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>594</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>597</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>600</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>603</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>606</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>609</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>613</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>617</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>621</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>625</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>629</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>633</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>637</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>640</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>644</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>647</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>651</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>655</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>659</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>663</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>666</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>669</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>674</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>677</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>681</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>685</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>688</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>692</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>696</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>702</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>706</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>711</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>714</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>718</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>722</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>728</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>733</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>736</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>741</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>745</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>749</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>754</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>757</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>761</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>765</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>771</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>777</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>782</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>786</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>790</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>794</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>797</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>802</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>806</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>809</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>813</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>818</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>822</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>825</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>830</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>835</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>839</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>844</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>850</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>854</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>858</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>862</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>865</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>868</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>872</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>879</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>882</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>886</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>891</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>895</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>899</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>902</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>906</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>909</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>914</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>920</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>923</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>927</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>932</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>936</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>940</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>944</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>949</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>952</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>955</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>958</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>963</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>967</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>971</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>974</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>977</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>981</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>984</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>988</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>992</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>997</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1001</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1005</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1010</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1013</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1017</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1021</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1025</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1029</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1033</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1037</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1041</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1045</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1049</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1053</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1055</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1059</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1062</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1064</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1068</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1072</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1077</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1080</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1085</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1089</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1093</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1098</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1102</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1106</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1110</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1113</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1119</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1123</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1126</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1130</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1134</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1137</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1141</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1146</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1149</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1152</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1155</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1158</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1161</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1166</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1170</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1173</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1176</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1180</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1185</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1188</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1192</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1196</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1201</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1205</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1208</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1212</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1216</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1220</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1224</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1228</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1233</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1237</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1241</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1245</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1249</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1254</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1258</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1262</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1266</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1269</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1273</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1276</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1280</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1285</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1288</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1292</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1296</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1299</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1302</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1305</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1309</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1313</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1316</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1320</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1323</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1326</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1329</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1333</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1337</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1341</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1344</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1348</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1351</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1355</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1359</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1364</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1367</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1372</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1375</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1378</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1382</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1385</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1388</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1393</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1396</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1400</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1404</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1408</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1412</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1417</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1420</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1425</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1428</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1432</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1436</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1440</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1444</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1448</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1452</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1456</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1461</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1465</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1469</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1473</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1477</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1481</v>
       </c>
@@ -16736,7 +16736,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1486</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1490</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1494</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1497</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1502</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1506</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1509</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1512</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1515</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1522</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1526</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1529</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1533</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1536</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1541</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1545</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1549</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1555</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1558</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1564</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1570</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1573</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1576</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1579</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1582</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1585</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1590</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1593</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1597</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1601</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1604</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1607</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1611</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1614</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1619</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1624</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1630</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1634</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1638</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1642</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1647</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1650</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1653</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1657</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1660</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1664</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1670</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1674</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1676</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1679</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1683</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1686</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1691</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1696</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1699</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1704</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1708</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1711</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1714</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1717</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1721</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1725</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1731</v>
       </c>
@@ -18059,7 +18059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1735</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1739</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1742</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1745</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1748</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1751</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1755</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1760</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1763</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1767</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1771</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1775</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1778</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1782</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1786</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1792</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1796</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1799</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1803</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1806</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1811</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1815</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1820</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1823</v>
       </c>
@@ -18551,7 +18551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1827</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1830</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1834</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1840</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1843</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1846</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1850</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1853</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1857</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1860</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1864</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1869</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1872</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1875</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1878</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1881</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1887</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1891</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1896</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1899</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1903</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1906</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1909</v>
       </c>
@@ -19008,7 +19008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1912</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1915</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1920</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1924</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1929</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1932</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1936</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1941</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1944</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1948</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1952</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1955</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1957</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1960</v>
       </c>
@@ -19294,7 +19294,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1963</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1967</v>
       </c>
@@ -19331,7 +19331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1970</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1975</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1979</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1983</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1988</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1991</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1995</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1999</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2001</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2004</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2009</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2012</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2016</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2020</v>
       </c>
@@ -19635,7 +19635,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2024</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2028</v>
       </c>
@@ -19681,7 +19681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2032</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2037</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2040</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2043</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2046</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>2049</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2054</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2056</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>2060</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2064</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>2068</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2074</v>
       </c>
@@ -19951,7 +19951,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>2079</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>2083</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2086</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2090</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2093</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2096</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2099</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2102</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2106</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2110</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2115</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2119</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2123</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2127</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2131</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2135</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2137</v>
       </c>
@@ -20300,7 +20300,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2140</v>
       </c>
@@ -20326,7 +20326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2143</v>
       </c>
@@ -20346,7 +20346,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2148</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2151</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2153</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2156</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2158</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2162</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>2166</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2169</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>2172</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>2174</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>2178</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>2181</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2185</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>2190</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>2195</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>2198</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>2200</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2204</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>2209</v>
       </c>
@@ -20747,7 +20747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2212</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>2215</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>2219</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>2222</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>2224</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>2228</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>2232</v>
       </c>
@@ -20890,7 +20890,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>2236</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>2240</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>2244</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>2249</v>
       </c>
@@ -20976,7 +20976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>2252</v>
       </c>
@@ -21002,7 +21002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>2256</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>2260</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>2264</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>2267</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>2271</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>2273</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>2278</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>2281</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>2288</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>2292</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>2295</v>
       </c>
@@ -21240,7 +21240,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>2299</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>2303</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>2306</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>2311</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>2314</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>2317</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>2321</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>2324</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>2330</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>2333</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>2337</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>2342</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>2345</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>2348</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>2352</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>2357</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>2361</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>2364</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>2368</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>2371</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>2375</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>2379</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>2383</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>2387</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>2389</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>2393</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>2396</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>2400</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>2404</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>2407</v>
       </c>
@@ -21852,7 +21852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>2409</v>
       </c>
@@ -21878,7 +21878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>2413</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>2417</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>2421</v>
       </c>
@@ -21935,7 +21935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>2425</v>
       </c>
@@ -21961,8 +21961,8 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="630" spans="7:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="631" spans="7:10" ht="168.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="631" spans="7:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G631" s="2" t="s">
         <v>2433</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="632" spans="7:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="7:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G632" s="5">
         <v>1</v>
       </c>
@@ -21990,7 +21990,7 @@
         <v>672.73199999999997</v>
       </c>
     </row>
-    <row r="633" spans="7:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="7:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G633" s="5">
         <v>2</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>670.92200000000003</v>
       </c>
     </row>
-    <row r="634" spans="7:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="7:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G634" s="5">
         <v>3</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>554.82500000000005</v>
       </c>
     </row>
-    <row r="635" spans="7:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="7:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G635" s="5">
         <v>4</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>594.79499999999996</v>
       </c>
     </row>
-    <row r="636" spans="7:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="7:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G636" s="5">
         <v>5</v>
       </c>

--- a/excel_data_thuc_nghiem.xlsx
+++ b/excel_data_thuc_nghiem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\datn-python\app_chinh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5ACE5E-C3E1-4793-A67B-0A8F81BD86A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E42267-5670-490C-A2E2-59CAB55F7B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7527,6 +7527,10 @@
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> gian thời gian xử lý</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" baseline="0"/>
+              <a:t> (ms)</a:t>
             </a:r>
             <a:endParaRPr lang="vi-VN"/>
           </a:p>
@@ -9039,8 +9043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H623" sqref="H623"/>
+    <sheetView tabSelected="1" topLeftCell="G628" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I649" sqref="I649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
